--- a/assets/findings/2024-02-11-findings.xlsx
+++ b/assets/findings/2024-02-11-findings.xlsx
@@ -7,12 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="21" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="45" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="84" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OVER-11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="59" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OVER-11" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,24 +435,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="27.6" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="46.8" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="48" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -474,90 +474,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -579,55 +584,53 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NYQ5ENN6GLQ9</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.553</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>11.805</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>OVER-11</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>SCHOOL BREAKFAST PROGRAM</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>28472</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>MBDA BUSINESS CENTER</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1362922</v>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -635,9 +638,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -650,12 +653,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>2021-001</t>
         </is>
@@ -677,40 +683,40 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NYQ5ENN6GLQ9</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10.555</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>11.802</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>OVER-11</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>160922</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>MINORITY BUSINESS RESOURCE DEVELOPMENT</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>230432</v>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -718,14 +724,12 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
@@ -733,9 +737,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -748,12 +752,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>2021-001</t>
         </is>
@@ -775,36 +782,496 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NYQ5ENN6GLQ9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>AWARD-0003</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2022-001</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.307</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>OVER-11</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ECONOMIC ADJUSTMENT ASSISTANCE</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>40286</v>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2021-001</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="4.8" customWidth="1" min="1" max="1"/>
+    <col width="32.4" customWidth="1" min="2" max="2"/>
+    <col width="27.6" customWidth="1" min="3" max="3"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="66" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>report_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>auditee_name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>award_reference</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>reference_number</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>aln</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>cog_over</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>federal_program_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>amount_expended</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_direct</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>is_major</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>is_passthrough_award</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>passthrough_amount</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>is_modified_opinion</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>is_other_matters</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>is_material_weakness</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_significant_deficiency</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>is_other_findings</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>is_questioned_costs</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>is_repeat_finding</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>prior_finding_ref_numbers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-06-GSAFAC-0000023703</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>The Enterprise Center</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NYQ5ENN6GLQ9</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AWARD-0006</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2022-001</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.218</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>OVER-11</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>COMMUNITY DEVELOPMENT BLOCK GRANTS/ENTITLEMENT GRANTS</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>104260</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>2021-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-06-GSAFAC-0000023703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>The Enterprise Center</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NYQ5ENN6GLQ9</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>AWARD-0007</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2022-001</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14.218</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>OVER-11</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>COMMUNITY DEVELOPMENT BLOCK GRANTS/ENTITLEMENT GRANTS</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>77466</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2021-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2022-06-GSAFAC-0000023703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>The Enterprise Center</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NYQ5ENN6GLQ9</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>AWARD-0008</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>2022-001</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10.555</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>14.218</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>OVER-11</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>41254</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>COMMUNITY DEVELOPMENT BLOCK GRANTS/ENTITLEMENT GRANTS</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>14933</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -816,14 +1283,12 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
@@ -831,9 +1296,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -846,12 +1311,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>2021-001</t>
         </is>
@@ -859,7 +1327,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -873,36 +1341,36 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AWARD-0004</t>
+          <t>NYQ5ENN6GLQ9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>AWARD-0009</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>2022-001</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10.766</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>14.218</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>OVER-11</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>COMMUNITY FACILITIES LOANS AND GRANTS</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>24200</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>COMMUNITY DEVELOPMENT BLOCK GRANTS/ENTITLEMENT GRANTS</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>21080</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -914,14 +1382,12 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
@@ -929,9 +1395,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -944,12 +1410,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>2021-001</t>
         </is>
@@ -970,13 +1439,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,24 +1456,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="27.6" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="106.8" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="60" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1025,90 +1495,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -1130,40 +1605,40 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NYQ5ENN6GLQ9</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0005</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>14.228</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>20.910</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>OVER-11</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>COMMUNITY DEVELOPMENT BLOCK GRANTS/STATE'S PROGRAM AND NON-ENTITLEMENT GRANTS IN HAWAII</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>7285</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ASSISTANCE TO SMALL AND DISADVANTAGED BUSINESSES</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>171823</v>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -1171,14 +1646,12 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -1186,9 +1659,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -1201,263 +1674,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>2021-001</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="4.8" customWidth="1" min="1" max="1"/>
-    <col width="32.4" customWidth="1" min="2" max="2"/>
-    <col width="27.6" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="61.2" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>report_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>auditee_name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>award_reference</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>reference_number</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>aln</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>cog_over</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>federal_program_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>amount_expended</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>is_direct</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>is_major</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>is_passthrough_award</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>passthrough_amount</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>is_modified_opinion</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>is_other_matters</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>is_material_weakness</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>is_significant_deficiency</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>is_other_findings</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>is_questioned_costs</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>is_repeat_finding</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>prior_finding_ref_numbers</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-06-GSAFAC-0000023703</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>The Enterprise Center</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>AWARD-0006</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2022-001</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>21.027</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>OVER-11</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>CORONAVIRUS STATE AND LOCAL FISCAL RECOVERY FUNDS</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>498676</v>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>2021-001</t>
         </is>
@@ -1478,7 +1703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1489,24 +1714,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="27.6" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="26.4" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="26.4" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1527,90 +1753,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -1618,7 +1849,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1632,40 +1863,40 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AWARD-0007</t>
+          <t>NYQ5ENN6GLQ9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>AWARD-0004</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2022-001</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>45.310</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>59.046</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>OVER-11</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>GRANTS TO STATES</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>235</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>MICROLOAN PROGRAM</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>130532</v>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -1673,14 +1904,12 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -1688,9 +1917,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -1703,12 +1932,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>2021-001</t>
         </is>
@@ -1729,7 +1961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1740,24 +1972,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="27.6" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="55.2" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="66" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1778,441 +2011,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>prior_finding_ref_numbers</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-06-GSAFAC-0000023703</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>The Enterprise Center</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>AWARD-0008</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2022-001</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>84.010</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>OVER-11</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>21717</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>2021-001</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-06-GSAFAC-0000023703</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>The Enterprise Center</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AWARD-0009</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2022-001</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>84.010</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>OVER-11</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>161785</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>2021-001</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="4.8" customWidth="1" min="1" max="1"/>
-    <col width="32.4" customWidth="1" min="2" max="2"/>
-    <col width="27.6" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="106.8" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>report_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>auditee_name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>award_reference</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>reference_number</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>aln</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>cog_over</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>federal_program_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>amount_expended</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>is_direct</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>is_major</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>is_passthrough_award</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>passthrough_amount</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>is_modified_opinion</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>is_other_matters</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>is_material_weakness</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>is_significant_deficiency</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>is_other_findings</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>is_questioned_costs</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>is_repeat_finding</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -2234,55 +2121,53 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NYQ5ENN6GLQ9</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.553</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>11.805</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>OVER-11</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>SCHOOL BREAKFAST PROGRAM</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>28472</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>MBDA BUSINESS CENTER</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1362922</v>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -2290,9 +2175,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -2305,12 +2190,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>2021-001</t>
         </is>
@@ -2332,40 +2220,40 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NYQ5ENN6GLQ9</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10.555</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>11.802</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>OVER-11</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>160922</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>MINORITY BUSINESS RESOURCE DEVELOPMENT</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>230432</v>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -2373,14 +2261,12 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
@@ -2388,9 +2274,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -2403,12 +2289,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>2021-001</t>
         </is>
@@ -2430,40 +2319,40 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NYQ5ENN6GLQ9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>AWARD-0003</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10.555</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>11.307</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>OVER-11</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>NATIONAL SCHOOL LUNCH PROGRAM</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>41254</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ECONOMIC ADJUSTMENT ASSISTANCE</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>40286</v>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -2471,14 +2360,12 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
@@ -2486,9 +2373,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -2501,12 +2388,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T4" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>2021-001</t>
         </is>
@@ -2528,40 +2418,40 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>NYQ5ENN6GLQ9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>AWARD-0004</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10.766</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>59.046</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>OVER-11</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>COMMUNITY FACILITIES LOANS AND GRANTS</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>24200</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>MICROLOAN PROGRAM</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>130532</v>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -2569,14 +2459,12 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
@@ -2584,9 +2472,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -2599,12 +2487,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T5" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>2021-001</t>
         </is>
@@ -2626,40 +2517,40 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NYQ5ENN6GLQ9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>AWARD-0005</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>14.228</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>20.910</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>OVER-11</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>COMMUNITY DEVELOPMENT BLOCK GRANTS/STATE'S PROGRAM AND NON-ENTITLEMENT GRANTS IN HAWAII</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>7285</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ASSISTANCE TO SMALL AND DISADVANTAGED BUSINESSES</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>171823</v>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -2667,14 +2558,12 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
@@ -2682,9 +2571,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2697,12 +2586,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T6" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>2021-001</t>
         </is>
@@ -2724,40 +2616,40 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>NYQ5ENN6GLQ9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>AWARD-0006</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>21.027</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>14.218</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>OVER-11</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>CORONAVIRUS STATE AND LOCAL FISCAL RECOVERY FUNDS</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>498676</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>COMMUNITY DEVELOPMENT BLOCK GRANTS/ENTITLEMENT GRANTS</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>104260</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -2765,14 +2657,12 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O7" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
@@ -2780,9 +2670,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2795,12 +2685,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T7" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>2021-001</t>
         </is>
@@ -2822,36 +2715,36 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>NYQ5ENN6GLQ9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>AWARD-0007</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>45.310</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>14.218</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>OVER-11</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>GRANTS TO STATES</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>235</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>COMMUNITY DEVELOPMENT BLOCK GRANTS/ENTITLEMENT GRANTS</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>77466</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -2863,14 +2756,12 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O8" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
@@ -2878,9 +2769,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2893,12 +2784,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T8" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>2021-001</t>
         </is>
@@ -2920,36 +2814,36 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>NYQ5ENN6GLQ9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>AWARD-0008</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>84.010</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>14.218</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>OVER-11</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>21717</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>COMMUNITY DEVELOPMENT BLOCK GRANTS/ENTITLEMENT GRANTS</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>14933</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -2961,14 +2855,12 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O9" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
@@ -2976,9 +2868,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2991,12 +2883,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T9" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U9" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>2021-001</t>
         </is>
@@ -3018,36 +2913,36 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>NYQ5ENN6GLQ9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>AWARD-0009</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2022-001</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>84.010</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>14.218</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>OVER-11</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>161785</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>COMMUNITY DEVELOPMENT BLOCK GRANTS/ENTITLEMENT GRANTS</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>21080</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -3059,14 +2954,12 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O10" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
@@ -3074,9 +2967,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="Q10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -3089,12 +2982,15 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="T10" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" t="inlineStr">
         <is>
           <t>2021-001</t>
         </is>

--- a/assets/findings/2024-02-11-findings.xlsx
+++ b/assets/findings/2024-02-11-findings.xlsx
@@ -625,8 +625,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -658,8 +660,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -724,8 +728,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -757,8 +763,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -823,8 +831,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -856,8 +866,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1085,8 +1097,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -1118,8 +1132,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -1184,8 +1200,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -1217,8 +1235,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -1283,8 +1303,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1316,8 +1338,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1382,8 +1406,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -1415,8 +1441,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1646,8 +1674,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -1679,8 +1709,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -1904,8 +1936,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -1937,8 +1971,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2162,8 +2198,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2195,8 +2233,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2261,8 +2301,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -2294,8 +2336,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -2360,8 +2404,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -2393,8 +2439,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -2459,8 +2507,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -2492,8 +2542,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -2558,8 +2610,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -2591,8 +2645,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -2657,8 +2713,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -2690,8 +2748,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -2756,8 +2816,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -2789,8 +2851,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -2855,8 +2919,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -2888,8 +2954,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -2954,8 +3022,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -2987,8 +3057,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
